--- a/week10/Lecture_exercise.xlsx
+++ b/week10/Lecture_exercise.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philippe/Dropbox/0 DTVC/Notebooks and Data/Week 10/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mattheus\github\digi-tech-smm750\week10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7C3633-0392-0A40-9CCA-EB3B1A4054D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84B2558-DF15-4665-B15E-A9EA9694777B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="1780" windowWidth="33540" windowHeight="23360" xr2:uid="{717D45D7-F4F5-4AB5-9865-1A20F42D555E}"/>
+    <workbookView xWindow="10296" yWindow="3480" windowWidth="27528" windowHeight="16824" activeTab="2" xr2:uid="{717D45D7-F4F5-4AB5-9865-1A20F42D555E}"/>
   </bookViews>
   <sheets>
     <sheet name="LP" sheetId="4" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="IP 2" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'IP 1'!$J$6:$L$6</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
@@ -33,15 +34,15 @@
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'IP 1'!#REF!</definedName>
-    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'IP 2'!#REF!</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'IP 1'!$J$6:$L$6</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'IP 2'!$J$13</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">LP!#REF!</definedName>
-    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'IP 1'!#REF!</definedName>
-    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'IP 2'!#REF!</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'IP 1'!$O$12:$O$14</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'IP 2'!$J$16</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">LP!#REF!</definedName>
-    <definedName name="solver_lhs3" localSheetId="1" hidden="1">'IP 1'!#REF!</definedName>
-    <definedName name="solver_lhs3" localSheetId="2" hidden="1">'IP 2'!#REF!</definedName>
-    <definedName name="solver_lhs4" localSheetId="1" hidden="1">'IP 1'!#REF!</definedName>
+    <definedName name="solver_lhs3" localSheetId="1" hidden="1">'IP 1'!$O$6</definedName>
+    <definedName name="solver_lhs3" localSheetId="2" hidden="1">'IP 2'!$K$6:$P$6</definedName>
+    <definedName name="solver_lhs4" localSheetId="1" hidden="1">'IP 1'!$O$9</definedName>
     <definedName name="solver_lin" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_lin" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">1</definedName>
@@ -63,12 +64,13 @@
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">4</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'IP 1'!$I$17</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
@@ -76,23 +78,23 @@
     <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">4</definedName>
-    <definedName name="solver_rel1" localSheetId="2" hidden="1">5</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel3" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel3" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="2" hidden="1">5</definedName>
     <definedName name="solver_rel4" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="1" hidden="1">integer</definedName>
-    <definedName name="solver_rhs1" localSheetId="2" hidden="1">binary</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">"integer"</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">'IP 2'!$L$13</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">LP!#REF!</definedName>
-    <definedName name="solver_rhs2" localSheetId="1" hidden="1">'IP 1'!#REF!</definedName>
-    <definedName name="solver_rhs2" localSheetId="2" hidden="1">'IP 2'!#REF!</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">'IP 1'!$Q$12:$Q$14</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">'IP 2'!$L$16</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">LP!#REF!</definedName>
-    <definedName name="solver_rhs3" localSheetId="1" hidden="1">'IP 1'!#REF!</definedName>
-    <definedName name="solver_rhs3" localSheetId="2" hidden="1">'IP 2'!#REF!</definedName>
-    <definedName name="solver_rhs4" localSheetId="1" hidden="1">'IP 1'!#REF!</definedName>
+    <definedName name="solver_rhs3" localSheetId="1" hidden="1">'IP 1'!$Q$6</definedName>
+    <definedName name="solver_rhs3" localSheetId="2" hidden="1">"binary"</definedName>
+    <definedName name="solver_rhs4" localSheetId="1" hidden="1">'IP 1'!$Q$9</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
@@ -120,8 +122,8 @@
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_ver" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
   </definedNames>
   <calcPr calcId="191029" calcMode="manual"/>
@@ -143,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
   <si>
     <t>Data</t>
   </si>
@@ -221,6 +223,51 @@
   </si>
   <si>
     <t>Max av failure risk</t>
+  </si>
+  <si>
+    <t>Decision Vars</t>
+  </si>
+  <si>
+    <t>Constraints</t>
+  </si>
+  <si>
+    <t>How much to expose</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Min number</t>
+  </si>
+  <si>
+    <t>&gt;=</t>
+  </si>
+  <si>
+    <t>Objective</t>
+  </si>
+  <si>
+    <t>Maximize</t>
+  </si>
+  <si>
+    <t>selection</t>
+  </si>
+  <si>
+    <t>decision</t>
+  </si>
+  <si>
+    <t>constraints</t>
+  </si>
+  <si>
+    <t>investment</t>
+  </si>
+  <si>
+    <t>failure risk</t>
+  </si>
+  <si>
+    <t>max profit</t>
   </si>
 </sst>
 </file>
@@ -311,7 +358,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0"/>
     <xf numFmtId="2" fontId="1" fillId="5" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1">
@@ -320,6 +367,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="4"/>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Constraints" xfId="3" xr:uid="{62210B8B-9FAF-4A90-851B-CBAF348B3885}"/>
@@ -647,24 +701,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235DCA9C-5420-4C00-8194-B3ABD8AAF1CB}">
   <dimension ref="A2:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="6" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -673,7 +727,7 @@
       </c>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -685,7 +739,7 @@
       </c>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -697,7 +751,7 @@
       </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -709,10 +763,10 @@
       </c>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>3</v>
       </c>
@@ -721,7 +775,7 @@
       </c>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -733,28 +787,28 @@
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F17" s="5"/>
     </row>
   </sheetData>
@@ -767,26 +821,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A84ED354-F355-EA43-AED4-C2D17A702DB5}">
-  <dimension ref="B3:E13"/>
+  <dimension ref="B3:Q17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="I3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="O3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>7</v>
       </c>
@@ -796,8 +861,20 @@
       <c r="E5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="J5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" t="s">
+        <v>9</v>
+      </c>
+      <c r="P5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -810,8 +887,31 @@
       <c r="E6" s="1">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="I6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="7">
+        <v>12</v>
+      </c>
+      <c r="K6" s="7">
+        <v>10</v>
+      </c>
+      <c r="L6" s="7">
+        <v>24</v>
+      </c>
+      <c r="O6" s="8">
+        <f>SUMPRODUCT(J6:L6,C6:E6)</f>
+        <v>4.97</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" s="8">
+        <f>C13</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -825,7 +925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>12</v>
       </c>
@@ -838,8 +938,11 @@
       <c r="E8" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="P8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>13</v>
       </c>
@@ -852,26 +955,92 @@
       <c r="E9" s="1">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="O9" s="8">
+        <f>SUMPRODUCT(J6:L6,C8:E8)</f>
+        <v>14.7</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="P11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="O12" s="10">
+        <f>J6</f>
+        <v>12</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q12" s="8">
+        <f>C7</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="1">
         <v>5</v>
       </c>
+      <c r="O13" s="10">
+        <f>K6</f>
+        <v>10</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q13" s="8">
+        <f>D7</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="O14" s="10">
+        <f>L6</f>
+        <v>24</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q14" s="8">
+        <f>E7</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I15" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="9">
+        <f>SUMPRODUCT(J6:L6,C9:E9)</f>
+        <v>65.599999999999994</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B3:E3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="O3:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -879,29 +1048,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2702A581-3681-9046-9AA3-3079567422A0}">
-  <dimension ref="B3:H12"/>
+  <dimension ref="B3:P20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="J3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -920,8 +1092,26 @@
       <c r="H5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="K5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>22</v>
       </c>
@@ -943,8 +1133,11 @@
       <c r="H6" s="1">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -967,7 +1160,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>23</v>
       </c>
@@ -990,20 +1183,68 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="1">
         <v>5</v>
+      </c>
+      <c r="J12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="J13">
+        <f>SUMPRODUCT(C6:H6,K6:P6)</f>
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13">
+        <f>C11</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="J15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="J16">
+        <f>SUMPRODUCT(C8:H8,K6:P6)</f>
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L16">
+        <f>C12</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J20">
+        <f>SUMPRODUCT(C7:H7,K6:P6)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
